--- a/dat/ge_optima_660_raw.xlsx
+++ b/dat/ge_optima_660_raw.xlsx
@@ -40,25 +40,25 @@
     <t xml:space="preserve">ctdi</t>
   </si>
   <si>
-    <t xml:space="preserve">l0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filt</t>
+    <t xml:space="preserve">lcoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lscan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter</t>
   </si>
   <si>
     <t xml:space="preserve">angle</t>
   </si>
   <si>
-    <t xml:space="preserve">p</t>
+    <t xml:space="preserve">pitch</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -361,7 +361,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I63"/>
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
